--- a/doc/ers-biblioteca-godofredo.xlsx
+++ b/doc/ers-biblioteca-godofredo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.lima\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB44A915-AA11-4190-B160-17DC833EA9E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65C11FB-238D-4510-8282-76842B474ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="266" xr2:uid="{39BD441F-A647-4054-8C18-A449FA7A31F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>Verificar se os QR code gerados armazenados no arquivo txt estão gerando a viculação com o cadastro do livro | As operações permitidas são: geração, armazenamento e impressão do QR code | A operação de geração do QR code será feita pelo software desenvolvido em java, tendo como entrada de dados a numeração gerada para os livros de acordo com o padrão adotado | Os QR code gerados devem ser armazenados no arquivo txt.</t>
+  </si>
+  <si>
+    <t>kaopskd</t>
   </si>
 </sst>
 </file>
@@ -2086,9 +2089,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B12147-57AC-47A5-93C5-9D88EA3B46FD}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2152,6 +2157,11 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L6" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
